--- a/Go Programs Details.xlsx
+++ b/Go Programs Details.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Folder Name</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>Go Channels</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Employee Service API</t>
+  </si>
+  <si>
+    <t>server, proto</t>
   </si>
 </sst>
 </file>
@@ -401,7 +410,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -459,9 +468,15 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
